--- a/YSteam開発資料まとめ/スケジュール管理_YS_製造編.xlsx
+++ b/YSteam開発資料まとめ/スケジュール管理_YS_製造編.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gips\Desktop\YSteamRepository\YSteam開発資料まとめ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F7FCA6-6D20-46D9-AD2F-BFFF65D39EB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1943F654-F65E-4963-A6B2-8A34594D1CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{463BA607-5B8D-427B-915F-C261C307A3F3}"/>
+    <workbookView xWindow="1392" yWindow="2844" windowWidth="18636" windowHeight="8964" xr2:uid="{463BA607-5B8D-427B-915F-C261C307A3F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -969,9 +969,11 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="スケジュール"/>
+      <sheetName val="スケジュール管理_YS "/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1296,7 +1298,7 @@
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.69921875" defaultRowHeight="16.2" x14ac:dyDescent="0.45"/>
@@ -1362,7 +1364,9 @@
         <v>44516</v>
       </c>
       <c r="G2" s="10"/>
-      <c r="H2" s="11"/>
+      <c r="H2" s="11">
+        <v>0.7</v>
+      </c>
       <c r="I2" s="12">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>0</v>
@@ -1370,9 +1374,7 @@
       <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A3" s="7">
-        <v>2</v>
-      </c>
+      <c r="A3" s="7"/>
       <c r="B3" s="8" t="s">
         <v>19</v>
       </c>
@@ -1389,7 +1391,9 @@
         <v>44516</v>
       </c>
       <c r="G3" s="10"/>
-      <c r="H3" s="11"/>
+      <c r="H3" s="11">
+        <v>0.5</v>
+      </c>
       <c r="I3" s="12">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>0</v>
@@ -1414,7 +1418,9 @@
         <v>44516</v>
       </c>
       <c r="G4" s="10"/>
-      <c r="H4" s="11"/>
+      <c r="H4" s="11">
+        <v>0.8</v>
+      </c>
       <c r="I4" s="12"/>
       <c r="J4" s="9" t="s">
         <v>24</v>
@@ -1438,7 +1444,9 @@
         <v>44516</v>
       </c>
       <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
+      <c r="H5" s="11">
+        <v>0.8</v>
+      </c>
       <c r="I5" s="12"/>
       <c r="J5" s="9" t="s">
         <v>24</v>
@@ -2138,25 +2146,6 @@
           <xm:sqref>H2:H16 H19:H24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="10" id="{B08678BA-409D-4D9D-B391-04D9E3C8E397}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>I2:I16 I19:I24</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{33B4CEFB-2254-4436-98C8-FC792C1E5E03}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
@@ -2172,25 +2161,6 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>H25:H37</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="5" id="{55B695A8-1415-4F2D-B6A7-C047C2AD9796}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>I25:I37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C579138E-BBFB-44D1-87DC-6BB01809A6D4}">
@@ -2227,6 +2197,44 @@
           <xm:sqref>H17:H18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="10" id="{B08678BA-409D-4D9D-B391-04D9E3C8E397}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I2:I16 I19:I24</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="5" id="{55B695A8-1415-4F2D-B6A7-C047C2AD9796}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I25:I37</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="1" id="{AC4D78CF-38FB-4FD0-B7DC-D9330B0AA1F8}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">

--- a/YSteam開発資料まとめ/スケジュール管理_YS_製造編.xlsx
+++ b/YSteam開発資料まとめ/スケジュール管理_YS_製造編.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gips\Desktop\YSteamRepository\YSteam開発資料まとめ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1943F654-F65E-4963-A6B2-8A34594D1CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340415E6-B0F9-4BC0-9AA2-D1B01AD1DAFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1392" yWindow="2844" windowWidth="18636" windowHeight="8964" xr2:uid="{463BA607-5B8D-427B-915F-C261C307A3F3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{463BA607-5B8D-427B-915F-C261C307A3F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
   <si>
     <t>画面</t>
     <rPh sb="0" eb="2">
@@ -289,6 +289,24 @@
     <rPh sb="0" eb="4">
       <t>ツイカキノウ</t>
     </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>入力値の検索処理など</t>
+    <rPh sb="0" eb="3">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>ケンサクショリ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>QuizChallenge.java</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>CalculateScore.java</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -980,8 +998,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DC77F831-80B3-4ECB-AF85-8947F44D5CC6}" name="タスク_3" displayName="タスク_3" ref="C1:J16" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8">
-  <autoFilter ref="C1:J16" xr:uid="{DC77F831-80B3-4ECB-AF85-8947F44D5CC6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DC77F831-80B3-4ECB-AF85-8947F44D5CC6}" name="タスク_3" displayName="タスク_3" ref="C1:J9" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8">
+  <autoFilter ref="C1:J9" xr:uid="{DC77F831-80B3-4ECB-AF85-8947F44D5CC6}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{0FDB5969-73E9-4480-9CD4-24672417C930}" name="タスク名" dataDxfId="7" dataCellStyle="表のテキスト"/>
     <tableColumn id="7" xr3:uid="{E57FAE53-CEA6-4BDF-A3A1-E8A1659A0260}" name="担当" dataDxfId="6" dataCellStyle="表のテキスト"/>
@@ -1295,10 +1313,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BACBC2EC-8764-45A1-8447-6339029BF751}">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.69921875" defaultRowHeight="16.2" x14ac:dyDescent="0.45"/>
@@ -1454,149 +1472,136 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="7">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>26</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C6" s="9"/>
       <c r="D6" s="9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E6" s="10">
-        <v>44516</v>
+        <v>44518</v>
       </c>
       <c r="F6" s="10">
-        <v>44517</v>
+        <v>44519</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="11"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="9" t="s">
-        <v>29</v>
-      </c>
+      <c r="I6" s="12">
+        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="7">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>27</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C7" s="9"/>
       <c r="D7" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="10">
-        <v>44516</v>
+        <v>44518</v>
       </c>
       <c r="F7" s="10">
-        <v>44517</v>
+        <v>44519</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="9" t="s">
-        <v>29</v>
-      </c>
+      <c r="I7" s="12">
+        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="7">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E8" s="10">
-        <v>44516</v>
+        <v>44518</v>
       </c>
       <c r="F8" s="10">
-        <v>44517</v>
+        <v>44519</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="9" t="s">
-        <v>29</v>
-      </c>
+      <c r="I8" s="12">
+        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="9"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="7">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="10">
-        <v>44518</v>
-      </c>
-      <c r="F9" s="10">
-        <v>44519</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="11"/>
-      <c r="I9" s="12"/>
+      <c r="I9" s="12">
+        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
+        <v>0</v>
+      </c>
       <c r="J9" s="9"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="7">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="10">
-        <v>44518</v>
+        <v>10</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="F10" s="10">
         <v>44519</v>
       </c>
       <c r="G10" s="10"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="9"/>
+      <c r="H10" s="11">
+        <v>0</v>
+      </c>
+      <c r="I10" s="12" t="e">
+        <f>--([1]!タスク_3[[#This Row],[達成率]]&gt;=1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A11" s="7">
-        <v>10</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="10">
-        <v>44518</v>
-      </c>
-      <c r="F11" s="10">
-        <v>44519</v>
-      </c>
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="11"/>
       <c r="I11" s="12"/>
@@ -1604,177 +1609,178 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="7">
+        <v>17</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
+      <c r="D12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="10">
+        <v>44519</v>
+      </c>
       <c r="G12" s="10"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="9"/>
+      <c r="H12" s="11">
+        <v>0</v>
+      </c>
+      <c r="I12" s="12" t="e">
+        <f>--([1]!タスク_3[[#This Row],[達成率]]&gt;=1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A13" s="7">
-        <v>12</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="10">
-        <v>44518</v>
-      </c>
-      <c r="F13" s="10">
-        <v>44519</v>
-      </c>
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="11"/>
-      <c r="I13" s="12">
-        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
-      </c>
+      <c r="I13" s="12"/>
       <c r="J13" s="9"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="7">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="D14" s="9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E14" s="10">
-        <v>44518</v>
+        <v>44516</v>
       </c>
       <c r="F14" s="10">
-        <v>44519</v>
+        <v>44517</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="11"/>
-      <c r="I14" s="12">
-        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="9"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="9" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="7">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E15" s="10">
-        <v>44518</v>
+        <v>44516</v>
       </c>
       <c r="F15" s="10">
-        <v>44519</v>
+        <v>44517</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="11"/>
-      <c r="I15" s="12">
-        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="9"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="9" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="7">
-        <v>15</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
+        <v>6</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="10">
+        <v>44516</v>
+      </c>
+      <c r="F16" s="10">
+        <v>44517</v>
+      </c>
       <c r="G16" s="10"/>
       <c r="H16" s="11"/>
-      <c r="I16" s="12">
-        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="9"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="9" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" s="7">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="E17" s="10">
+        <v>44518</v>
       </c>
       <c r="F17" s="10">
         <v>44519</v>
       </c>
       <c r="G17" s="10"/>
-      <c r="H17" s="11">
-        <v>0</v>
-      </c>
-      <c r="I17" s="12">
-        <f>--([1]!タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="H17" s="11"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="9"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" s="7">
+        <v>7</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>13</v>
+      <c r="E18" s="10">
+        <v>44518</v>
       </c>
       <c r="F18" s="10">
         <v>44519</v>
       </c>
       <c r="G18" s="10"/>
-      <c r="H18" s="11">
-        <v>0</v>
-      </c>
-      <c r="I18" s="12">
-        <f>--([1]!タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
-      </c>
+      <c r="H18" s="11"/>
+      <c r="I18" s="12"/>
       <c r="J18" s="9" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" s="7">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -1788,7 +1794,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" s="7">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -1802,7 +1808,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" s="7">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -1816,7 +1822,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" s="7">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -1830,7 +1836,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23" s="7">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -1844,7 +1850,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24" s="7">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -1858,10 +1864,10 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25" s="7">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B25" s="8"/>
-      <c r="C25" s="9"/>
+      <c r="C25" s="8"/>
       <c r="D25" s="9"/>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
@@ -1870,189 +1876,9 @@
       <c r="I25" s="12"/>
       <c r="J25" s="9"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A26" s="7">
-        <v>25</v>
-      </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="12" t="e">
-        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J26" s="9"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A27" s="7">
-        <v>26</v>
-      </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="12" t="e">
-        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J27" s="9"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A28" s="7">
-        <v>27</v>
-      </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="12" t="e">
-        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J28" s="9"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A29" s="7">
-        <v>28</v>
-      </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="12" t="e">
-        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J29" s="9"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A30" s="7">
-        <v>29</v>
-      </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="9"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A31" s="7">
-        <v>30</v>
-      </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="9"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A32" s="7">
-        <v>31</v>
-      </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="9"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A33" s="7">
-        <v>32</v>
-      </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="9"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A34" s="7">
-        <v>33</v>
-      </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="9"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A35" s="7">
-        <v>34</v>
-      </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="9"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A36" s="7">
-        <v>35</v>
-      </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="9"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A37" s="7">
-        <v>36</v>
-      </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="9"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="4"/>
-  <conditionalFormatting sqref="H2:H16 H19:H24">
+  <conditionalFormatting sqref="H2:H9 H14:H25">
     <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -2066,21 +1892,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H25:H37">
-    <cfRule type="dataBar" priority="4">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="8"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{33B4CEFB-2254-4436-98C8-FC792C1E5E03}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H17:H18">
+  <conditionalFormatting sqref="H10:H13">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -2094,7 +1906,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H17:H18">
+  <conditionalFormatting sqref="H10:H13">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -2115,7 +1927,7 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="タスク表の見出しは [完了] です。タスク完了時に自動的に更新されるアイコン インジケーターです。この列の空白セルは進行中のタスクを示します" sqref="I1" xr:uid="{C267DFE8-25F5-4B3B-A663-E6159C69D7C2}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この列には、各タスクに関するメモを入力します" sqref="J1" xr:uid="{929D65DB-E763-4060-AFE9-1FB74B35A196}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この列には、各タスクの名前を入力します" sqref="B1:D1" xr:uid="{969C62B3-2B1E-4919-8EDE-6854F906EDC3}"/>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="0 から 100 までの値のみが有効です。この範囲内の値を入力するには [再試行] を押します。0 は、開始前のタスクを示します。100 は、完了したタスクを示します" sqref="H2:H37" xr:uid="{A85FFA4E-B148-47CC-9B73-DD74310D1EC1}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="0 から 100 までの値のみが有効です。この範囲内の値を入力するには [再試行] を押します。0 は、開始前のタスクを示します。100 は、完了したタスクを示します" sqref="H2:H25" xr:uid="{A85FFA4E-B148-47CC-9B73-DD74310D1EC1}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
@@ -2143,24 +1955,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H2:H16 H19:H24</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{33B4CEFB-2254-4436-98C8-FC792C1E5E03}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:borderColor theme="8"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H25:H37</xm:sqref>
+          <xm:sqref>H2:H9 H14:H25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C579138E-BBFB-44D1-87DC-6BB01809A6D4}">
@@ -2177,7 +1972,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H17:H18</xm:sqref>
+          <xm:sqref>H10:H13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{057044DB-282B-4A02-B3E3-A5CCC334EC8C}">
@@ -2194,26 +1989,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H17:H18</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="10" id="{B08678BA-409D-4D9D-B391-04D9E3C8E397}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>I2:I16 I19:I24</xm:sqref>
+          <xm:sqref>H10:H13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="5" id="{55B695A8-1415-4F2D-B6A7-C047C2AD9796}">
@@ -2232,7 +2008,7 @@
               <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>I25:I37</xm:sqref>
+          <xm:sqref>I19:I25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="1" id="{AC4D78CF-38FB-4FD0-B7DC-D9330B0AA1F8}">
@@ -2251,7 +2027,26 @@
               <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>I17:I18</xm:sqref>
+          <xm:sqref>I10:I13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="14" id="{B08678BA-409D-4D9D-B391-04D9E3C8E397}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I14:I18 I2:I9</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/YSteam開発資料まとめ/スケジュール管理_YS_製造編.xlsx
+++ b/YSteam開発資料まとめ/スケジュール管理_YS_製造編.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gips\Desktop\YSteamRepository\YSteam開発資料まとめ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340415E6-B0F9-4BC0-9AA2-D1B01AD1DAFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEAB6B62-E44F-44E2-9F16-2BB4928CE87D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{463BA607-5B8D-427B-915F-C261C307A3F3}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
   <si>
     <t>画面</t>
     <rPh sb="0" eb="2">
@@ -292,21 +292,45 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>入力値の検索処理など</t>
-    <rPh sb="0" eb="3">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="4" eb="8">
-      <t>ケンサクショリ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>QuizChallenge.java</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>CalculateScore.java</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>16日の17時くらい</t>
+    <rPh sb="2" eb="3">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>quiz.htmlまでチームレビュー</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>苑　ヨウ</t>
+    <rPh sb="0" eb="1">
+      <t>ソノ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>17日の11時くらいから開始</t>
+    <rPh sb="2" eb="3">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カイシ</t>
+    </rPh>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -1313,10 +1337,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BACBC2EC-8764-45A1-8447-6339029BF751}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.69921875" defaultRowHeight="16.2" x14ac:dyDescent="0.45"/>
@@ -1513,10 +1537,12 @@
         <v>44519</v>
       </c>
       <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
+      <c r="H7" s="11">
+        <v>1</v>
+      </c>
       <c r="I7" s="12">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="9"/>
     </row>
@@ -1670,7 +1696,9 @@
         <v>44517</v>
       </c>
       <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
+      <c r="H14" s="11">
+        <v>0.9</v>
+      </c>
       <c r="I14" s="12"/>
       <c r="J14" s="9" t="s">
         <v>29</v>
@@ -1684,7 +1712,7 @@
         <v>30</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>20</v>
@@ -1696,10 +1724,12 @@
         <v>44517</v>
       </c>
       <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
+      <c r="H15" s="11">
+        <v>0.6</v>
+      </c>
       <c r="I15" s="12"/>
       <c r="J15" s="9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
@@ -1722,45 +1752,43 @@
         <v>44517</v>
       </c>
       <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
+      <c r="H16" s="11">
+        <v>0.3</v>
+      </c>
       <c r="I16" s="12"/>
       <c r="J16" s="9" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A17" s="7">
-        <v>9</v>
-      </c>
+      <c r="A17" s="7"/>
       <c r="B17" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>37</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C17" s="8"/>
       <c r="D17" s="9" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="E17" s="10">
-        <v>44518</v>
-      </c>
-      <c r="F17" s="10">
-        <v>44519</v>
-      </c>
+        <v>44517</v>
+      </c>
+      <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="11"/>
       <c r="I17" s="12"/>
-      <c r="J17" s="9"/>
+      <c r="J17" s="9" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>17</v>
@@ -1774,27 +1802,37 @@
       <c r="G18" s="10"/>
       <c r="H18" s="11"/>
       <c r="I18" s="12"/>
-      <c r="J18" s="9" t="s">
-        <v>29</v>
-      </c>
+      <c r="J18" s="9"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" s="7">
-        <v>30</v>
-      </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
+        <v>7</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="10">
+        <v>44518</v>
+      </c>
+      <c r="F19" s="10">
+        <v>44519</v>
+      </c>
       <c r="G19" s="10"/>
       <c r="H19" s="11"/>
       <c r="I19" s="12"/>
-      <c r="J19" s="9"/>
+      <c r="J19" s="9" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -1808,7 +1846,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" s="7">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -1822,7 +1860,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" s="7">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -1836,7 +1874,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23" s="7">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -1850,7 +1888,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24" s="7">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -1864,7 +1902,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25" s="7">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -1876,9 +1914,23 @@
       <c r="I25" s="12"/>
       <c r="J25" s="9"/>
     </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A26" s="7">
+        <v>36</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="9"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="4"/>
-  <conditionalFormatting sqref="H2:H9 H14:H25">
+  <conditionalFormatting sqref="H2:H9 H14:H26">
     <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -1927,7 +1979,7 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="タスク表の見出しは [完了] です。タスク完了時に自動的に更新されるアイコン インジケーターです。この列の空白セルは進行中のタスクを示します" sqref="I1" xr:uid="{C267DFE8-25F5-4B3B-A663-E6159C69D7C2}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この列には、各タスクに関するメモを入力します" sqref="J1" xr:uid="{929D65DB-E763-4060-AFE9-1FB74B35A196}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この列には、各タスクの名前を入力します" sqref="B1:D1" xr:uid="{969C62B3-2B1E-4919-8EDE-6854F906EDC3}"/>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="0 から 100 までの値のみが有効です。この範囲内の値を入力するには [再試行] を押します。0 は、開始前のタスクを示します。100 は、完了したタスクを示します" sqref="H2:H25" xr:uid="{A85FFA4E-B148-47CC-9B73-DD74310D1EC1}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="0 から 100 までの値のみが有効です。この範囲内の値を入力するには [再試行] を押します。0 は、開始前のタスクを示します。100 は、完了したタスクを示します" sqref="H2:H26" xr:uid="{A85FFA4E-B148-47CC-9B73-DD74310D1EC1}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
@@ -1955,7 +2007,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H2:H9 H14:H25</xm:sqref>
+          <xm:sqref>H2:H9 H14:H26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C579138E-BBFB-44D1-87DC-6BB01809A6D4}">
@@ -2008,7 +2060,7 @@
               <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>I19:I25</xm:sqref>
+          <xm:sqref>I20:I26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="1" id="{AC4D78CF-38FB-4FD0-B7DC-D9330B0AA1F8}">
@@ -2046,7 +2098,7 @@
               <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>I14:I18 I2:I9</xm:sqref>
+          <xm:sqref>I14:I19 I2:I9</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/YSteam開発資料まとめ/スケジュール管理_YS_製造編.xlsx
+++ b/YSteam開発資料まとめ/スケジュール管理_YS_製造編.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gips\Desktop\YSteamRepository\YSteam開発資料まとめ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEAB6B62-E44F-44E2-9F16-2BB4928CE87D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBAC82CB-6C0B-4303-92D8-F596E2782F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{463BA607-5B8D-427B-915F-C261C307A3F3}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="45">
   <si>
     <t>画面</t>
     <rPh sb="0" eb="2">
@@ -98,81 +98,60 @@
     <t>メモ</t>
   </si>
   <si>
+    <t>ヨウさん</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>画面切り替え機能追加</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>製造工程で余裕があれば</t>
+    <rPh sb="0" eb="2">
+      <t>セイゾウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウテイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヨユウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ランキング実装まで</t>
+    <rPh sb="5" eb="7">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>DB作成</t>
+    <rPh sb="2" eb="4">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
     <t>苑</t>
     <rPh sb="0" eb="1">
       <t>ソノ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>ヨウさん</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>作成</t>
-    <rPh sb="0" eb="2">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>画面切り替え機能追加</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>未定</t>
-    <rPh sb="0" eb="2">
-      <t>ミテイ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>製造工程で余裕があれば</t>
-    <rPh sb="0" eb="2">
-      <t>セイゾウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>コウテイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヨユウ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>ランキング実装まで</t>
-    <rPh sb="5" eb="7">
-      <t>ジッソウ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>DB作成</t>
-    <rPh sb="2" eb="4">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>苑</t>
-    <rPh sb="0" eb="1">
-      <t>ソノ</t>
-    </rPh>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -300,16 +279,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>16日の17時くらい</t>
-    <rPh sb="2" eb="3">
-      <t>ニチ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ジ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>quiz.htmlまでチームレビュー</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -330,6 +299,71 @@
     </rPh>
     <rPh sb="12" eb="14">
       <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>17日　１７時には着手</t>
+    <rPh sb="2" eb="3">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チャクシュ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>17日の16時くらい</t>
+    <rPh sb="2" eb="3">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ウェルカム画面の空欄チェック</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ラジオボタンで内容が空欄のチェック</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ソースコード手直し</t>
+    <rPh sb="6" eb="8">
+      <t>テナオ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>マージしたものがある前提</t>
+    <rPh sb="10" eb="12">
+      <t>ゼンテイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>バックエンドでの空欄削除処理</t>
+    <rPh sb="8" eb="10">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アクセス制御</t>
+    <rPh sb="4" eb="6">
+      <t>セイギョ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -489,7 +523,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -533,6 +567,18 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1022,8 +1068,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DC77F831-80B3-4ECB-AF85-8947F44D5CC6}" name="タスク_3" displayName="タスク_3" ref="C1:J9" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8">
-  <autoFilter ref="C1:J9" xr:uid="{DC77F831-80B3-4ECB-AF85-8947F44D5CC6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DC77F831-80B3-4ECB-AF85-8947F44D5CC6}" name="タスク_3" displayName="タスク_3" ref="C1:J7" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8">
+  <autoFilter ref="C1:J7" xr:uid="{DC77F831-80B3-4ECB-AF85-8947F44D5CC6}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{0FDB5969-73E9-4480-9CD4-24672417C930}" name="タスク名" dataDxfId="7" dataCellStyle="表のテキスト"/>
     <tableColumn id="7" xr3:uid="{E57FAE53-CEA6-4BDF-A3A1-E8A1659A0260}" name="担当" dataDxfId="6" dataCellStyle="表のテキスト"/>
@@ -1337,10 +1383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BACBC2EC-8764-45A1-8447-6339029BF751}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="C12" sqref="C12:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.69921875" defaultRowHeight="16.2" x14ac:dyDescent="0.45"/>
@@ -1391,13 +1437,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E2" s="10">
         <v>44515</v>
@@ -1405,26 +1451,30 @@
       <c r="F2" s="10">
         <v>44516</v>
       </c>
-      <c r="G2" s="10"/>
+      <c r="G2" s="10">
+        <v>44516</v>
+      </c>
       <c r="H2" s="11">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="I2" s="12">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A3" s="7"/>
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
       <c r="B3" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E3" s="10">
         <v>44516</v>
@@ -1432,13 +1482,15 @@
       <c r="F3" s="10">
         <v>44516</v>
       </c>
-      <c r="G3" s="10"/>
+      <c r="G3" s="10">
+        <v>44516</v>
+      </c>
       <c r="H3" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I3" s="12">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="9"/>
     </row>
@@ -1447,11 +1499,11 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E4" s="10">
         <v>44515</v>
@@ -1459,13 +1511,15 @@
       <c r="F4" s="10">
         <v>44516</v>
       </c>
-      <c r="G4" s="10"/>
+      <c r="G4" s="10">
+        <v>44516</v>
+      </c>
       <c r="H4" s="11">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
@@ -1473,11 +1527,11 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E5" s="10">
         <v>44515</v>
@@ -1485,25 +1539,27 @@
       <c r="F5" s="10">
         <v>44516</v>
       </c>
-      <c r="G5" s="10"/>
+      <c r="G5" s="10">
+        <v>44516</v>
+      </c>
       <c r="H5" s="11">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="7">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E6" s="10">
         <v>44518</v>
@@ -1512,7 +1568,9 @@
         <v>44519</v>
       </c>
       <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
+      <c r="H6" s="11">
+        <v>0.8</v>
+      </c>
       <c r="I6" s="12">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>0</v>
@@ -1521,14 +1579,14 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="7">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E7" s="10">
         <v>44518</v>
@@ -1548,389 +1606,440 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>17</v>
-      </c>
       <c r="E8" s="10">
-        <v>44518</v>
+        <v>44516</v>
       </c>
       <c r="F8" s="10">
-        <v>44519</v>
+        <v>44517</v>
       </c>
       <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12">
-        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="9"/>
+      <c r="H8" s="11">
+        <v>1</v>
+      </c>
+      <c r="I8" s="12"/>
+      <c r="J8" s="9" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="7">
-        <v>15</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="10">
+        <v>44516</v>
+      </c>
+      <c r="F9" s="10">
+        <v>44517</v>
+      </c>
       <c r="G9" s="10"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="12">
-        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="9"/>
+      <c r="H9" s="11">
+        <v>1</v>
+      </c>
+      <c r="I9" s="12"/>
+      <c r="J9" s="9" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="7">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="E10" s="10">
+        <v>44516</v>
       </c>
       <c r="F10" s="10">
-        <v>44519</v>
+        <v>44517</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="11">
+        <v>1</v>
+      </c>
+      <c r="I10" s="12"/>
+      <c r="J10" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="10">
+        <v>44517</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="11">
+        <v>1</v>
+      </c>
+      <c r="I11" s="12"/>
+      <c r="J11" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="10">
+        <v>44518</v>
+      </c>
+      <c r="F12" s="10">
+        <v>44519</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="I12" s="12"/>
+      <c r="J12" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="10">
+        <v>44518</v>
+      </c>
+      <c r="F13" s="10">
+        <v>44519</v>
+      </c>
+      <c r="G13" s="10"/>
+      <c r="H13" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="I13" s="12"/>
+      <c r="J13" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A14" s="7">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="10">
+        <v>44518</v>
+      </c>
+      <c r="F14" s="10">
+        <v>44518</v>
+      </c>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="I14" s="12"/>
+      <c r="J14" s="9"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A15" s="7">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="10">
+        <v>44518</v>
+      </c>
+      <c r="F15" s="10">
+        <v>44518</v>
+      </c>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="I15" s="12"/>
+      <c r="J15" s="9"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A16" s="7">
+        <v>16</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="9"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A17" s="7">
+        <v>17</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="10">
+        <v>44518</v>
+      </c>
+      <c r="F17" s="10">
+        <v>44519</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="11">
         <v>0</v>
       </c>
-      <c r="I10" s="12" t="e">
+      <c r="I17" s="12" t="e">
+        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J17" s="9"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A18" s="7">
+        <v>18</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="10">
+        <v>44519</v>
+      </c>
+      <c r="F18" s="10">
+        <v>44519</v>
+      </c>
+      <c r="G18" s="10"/>
+      <c r="H18" s="11">
+        <v>0</v>
+      </c>
+      <c r="I18" s="12" t="e">
         <f>--([1]!タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>#REF!</v>
       </c>
-      <c r="J10" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="9"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A12" s="7">
+      <c r="J18" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A19" s="7">
+        <v>19</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="10">
+      <c r="E19" s="10">
         <v>44519</v>
       </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="11">
+      <c r="F19" s="10">
+        <v>44519</v>
+      </c>
+      <c r="G19" s="10"/>
+      <c r="H19" s="11">
         <v>0</v>
       </c>
-      <c r="I12" s="12" t="e">
+      <c r="I19" s="12" t="e">
         <f>--([1]!タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>#REF!</v>
       </c>
-      <c r="J12" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="9"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A14" s="7">
-        <v>25</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="10">
-        <v>44516</v>
-      </c>
-      <c r="F14" s="10">
-        <v>44517</v>
-      </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11">
-        <v>0.9</v>
-      </c>
-      <c r="I14" s="12"/>
-      <c r="J14" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A15" s="7">
-        <v>8</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="10">
-        <v>44516</v>
-      </c>
-      <c r="F15" s="10">
-        <v>44517</v>
-      </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11">
-        <v>0.6</v>
-      </c>
-      <c r="I15" s="12"/>
-      <c r="J15" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A16" s="7">
-        <v>6</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="10">
-        <v>44516</v>
-      </c>
-      <c r="F16" s="10">
-        <v>44517</v>
-      </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11">
-        <v>0.3</v>
-      </c>
-      <c r="I16" s="12"/>
-      <c r="J16" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="10">
-        <v>44517</v>
-      </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A18" s="7">
-        <v>9</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="10">
-        <v>44518</v>
-      </c>
-      <c r="F18" s="10">
-        <v>44519</v>
-      </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="9"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A19" s="7">
-        <v>7</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="10">
-        <v>44518</v>
-      </c>
-      <c r="F19" s="10">
-        <v>44519</v>
-      </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="12"/>
       <c r="J19" s="9" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" s="7">
-        <v>30</v>
-      </c>
-      <c r="B20" s="8"/>
+        <v>20</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="C20" s="8"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
+      <c r="D20" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="10">
+        <v>44519</v>
+      </c>
+      <c r="F20" s="10">
+        <v>44519</v>
+      </c>
       <c r="G20" s="10"/>
-      <c r="H20" s="11"/>
+      <c r="H20" s="11">
+        <v>0</v>
+      </c>
       <c r="I20" s="12"/>
-      <c r="J20" s="9"/>
+      <c r="J20" s="9" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" s="7">
-        <v>31</v>
-      </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="9"/>
+        <v>21</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="10">
+        <v>44519</v>
+      </c>
+      <c r="F21" s="10">
+        <v>44519</v>
+      </c>
+      <c r="G21" s="17"/>
+      <c r="H21" s="18">
+        <v>0</v>
+      </c>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" s="7">
-        <v>32</v>
-      </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="9"/>
+        <v>22</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="10">
+        <v>44519</v>
+      </c>
+      <c r="F22" s="10">
+        <v>44519</v>
+      </c>
+      <c r="G22" s="17"/>
+      <c r="H22" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23" s="7">
-        <v>33</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="9"/>
+        <v>23</v>
+      </c>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24" s="7">
-        <v>34</v>
-      </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="9"/>
+        <v>24</v>
+      </c>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25" s="7">
-        <v>35</v>
-      </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="9"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A26" s="7">
-        <v>36</v>
-      </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4"/>
-  <conditionalFormatting sqref="H2:H9 H14:H26">
+  <conditionalFormatting sqref="H2:H20">
     <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -1944,34 +2053,6 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H10:H13">
-    <cfRule type="dataBar" priority="3">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="8"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C579138E-BBFB-44D1-87DC-6BB01809A6D4}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10:H13">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="8"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{057044DB-282B-4A02-B3E3-A5CCC334EC8C}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="7">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この列には、各タスクの開始日を入力します" sqref="E1:F1" xr:uid="{F890FDC8-47E8-4028-9B75-0B7E5FA9C681}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この列には、各タスクの期日を入力します" sqref="G1" xr:uid="{42F84084-FF19-4D35-9394-9531B7C32575}"/>
@@ -1979,7 +2060,7 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="タスク表の見出しは [完了] です。タスク完了時に自動的に更新されるアイコン インジケーターです。この列の空白セルは進行中のタスクを示します" sqref="I1" xr:uid="{C267DFE8-25F5-4B3B-A663-E6159C69D7C2}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この列には、各タスクに関するメモを入力します" sqref="J1" xr:uid="{929D65DB-E763-4060-AFE9-1FB74B35A196}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この列には、各タスクの名前を入力します" sqref="B1:D1" xr:uid="{969C62B3-2B1E-4919-8EDE-6854F906EDC3}"/>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="0 から 100 までの値のみが有効です。この範囲内の値を入力するには [再試行] を押します。0 は、開始前のタスクを示します。100 は、完了したタスクを示します" sqref="H2:H26" xr:uid="{A85FFA4E-B148-47CC-9B73-DD74310D1EC1}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="0 から 100 までの値のみが有効です。この範囲内の値を入力するには [再試行] を押します。0 は、開始前のタスクを示します。100 は、完了したタスクを示します" sqref="H2:H20" xr:uid="{A85FFA4E-B148-47CC-9B73-DD74310D1EC1}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
@@ -2007,44 +2088,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H2:H9 H14:H26</xm:sqref>
+          <xm:sqref>H2:H20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C579138E-BBFB-44D1-87DC-6BB01809A6D4}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:borderColor theme="8"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H10:H13</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{057044DB-282B-4A02-B3E3-A5CCC334EC8C}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:borderColor theme="8"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H10:H13</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="5" id="{55B695A8-1415-4F2D-B6A7-C047C2AD9796}">
+          <x14:cfRule type="iconSet" priority="19" id="{AC4D78CF-38FB-4FD0-B7DC-D9330B0AA1F8}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -2060,10 +2107,10 @@
               <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>I20:I26</xm:sqref>
+          <xm:sqref>I18:I20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1" id="{AC4D78CF-38FB-4FD0-B7DC-D9330B0AA1F8}">
+          <x14:cfRule type="iconSet" priority="25" id="{B08678BA-409D-4D9D-B391-04D9E3C8E397}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -2079,10 +2126,10 @@
               <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>I10:I13</xm:sqref>
+          <xm:sqref>I17 I2:I13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="14" id="{B08678BA-409D-4D9D-B391-04D9E3C8E397}">
+          <x14:cfRule type="iconSet" priority="28" id="{55B695A8-1415-4F2D-B6A7-C047C2AD9796}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -2098,7 +2145,7 @@
               <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>I14:I19 I2:I9</xm:sqref>
+          <xm:sqref>I14:I16</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
